--- a/jupyter_demos/review_summariser/summary.xlsx
+++ b/jupyter_demos/review_summariser/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,25 +476,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/users/66866724836f3a662ed9ee24</t>
+          <t>/users/6687d358753a663b2c503fdc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mr. Mohammed Irfan Shareef</t>
+          <t>Mr. Joel Adu Agyeman</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rated 4 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The app was good</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Good Service and reliable 👏</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good Service and reliable 👏 
+</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
@@ -508,12 +513,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/users/55c2439f0000ff0001d1e9c4</t>
+          <t>/users/584d4bd60000ff000a606bb6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>James Roch</t>
+          <t>Adam Adam</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,19 +528,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Super easy and fast</t>
+          <t>An easy application</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">The whole process end to end took me less than 10 minutes and was very easy - Good to know I can trust 118 118
+          <t xml:space="preserve">An easy application 
 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>04 July 2024</t>
+          <t>05 July 2024</t>
         </is>
       </c>
     </row>
@@ -545,40 +550,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/users/62bf16a05eb62f0012184c27</t>
+          <t>/users/5ffdfe2cba2f140019926e5b</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ash</t>
+          <t>Louise Liddell</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rated 1 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Absolute cowboys</t>
+          <t>Very efficient and friendly.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolute cowboys, customer help desk is a joke if you get through, try to rip you off as much as they can . I tried to close my account ( which they make increasingly difficult ) the person on the end of the phone had no idea and was trying to tell me I owed more than I did and when I questioned it they put it down to computer error !!!! Tried to complain to the complaints department and got standard can’t help you apology 
-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Reply from  118 118 MONEY
-Hello Ash - thanks for leaving a review. I'm sorry to hear that you're not happy. I have sent you a request for more information. If you'd like, I can arrange for a member of the team to contact you to discuss this. Kind regards, Sam Customer Engagement team.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Very efficient and friendly. 
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">03 July 2024
-</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -588,12 +587,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/users/61d5b672ad8c1a0012178977</t>
+          <t>/users/6687c369198df250f897d33b</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Waldemar</t>
+          <t>Mr. Dawid Kunicki</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -603,19 +602,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>I am satisfied</t>
+          <t>Sure</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am satisfied 
+          <t xml:space="preserve">Sure! Your guys are really good, rhia the second time i used an option with you and second time im happy. Sure the % could be less for me as i alreaddy was your costumer but well.... Thanks.
 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>05 July 2024</t>
         </is>
       </c>
     </row>
@@ -625,12 +624,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/users/5e206a9b013d41be85238e83</t>
+          <t>/users/60510417138835001945ed17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Karen Fripp</t>
+          <t>Ann</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -640,19 +639,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Very quick process and informative</t>
+          <t>Excellent service</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very quick process and informative 
+          <t xml:space="preserve">Excellent service, money was in my account by the time I had answered all relevant emails! Totally recommend! 
 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25 June 2024</t>
+          <t>05 July 2024</t>
         </is>
       </c>
     </row>
@@ -662,12 +661,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/users/62cac100afc6280014645e41</t>
+          <t>/users/625705d4a6051a00129f08f9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Antony Reynolds</t>
+          <t>Wayne hughes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -677,19 +676,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Excellent company to deal with</t>
+          <t>It was so easy to do</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excellent company to deal with. No red tape. Easy way to get a loan. Thanks 118 118 money👍🏻
+          <t xml:space="preserve">It was so easy to do, and was so quick as well , just what I needed. 
 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -699,34 +698,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/users/5c51b9f284b47aef8510dc00</t>
+          <t>/users/6687117c86aa70596d703aaf</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Mr. James Opoku</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 1 out of 5 stars</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bit of trouble to start with but when…</t>
+          <t>I applied for a credit card and was…</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bit of trouble to start with but when things were understood very helpful and quick process
+          <t xml:space="preserve">I applied for a credit card and was notified that it had been dispatched. About 2 weeks down the line and I’ve still not received it
 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>18 June 2024</t>
         </is>
       </c>
     </row>
@@ -736,12 +735,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/users/6685c16cb46b5daed150387d</t>
+          <t>/users/61b902ea34262f0012279aed</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mr. William Paterson</t>
+          <t>Ancuta Pintilie</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -751,14 +750,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Great fast service</t>
+          <t>very quickly and quickly.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26 June 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -768,40 +767,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/users/64ef4382cb6b190012a45b84</t>
+          <t>/users/616ef58cc109ea0012d8fb8e</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mathew Thomas</t>
+          <t>Lewis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rated 1 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Awful company</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Awful company, believe me once they have your bank details they will help themselves to whatever they want whenever they want.Customer service are useless and the complaints team are less than useless and will just send standard responses very close to the contracted deadlines.Do yourselves a favour and visit a loan shark instead of this cowboy outfit as the service you receive will be more compassionate.Escalating complaint to FOS
-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Reply from  118 118 MONEY
-Hello Matthew - I'm sorry to hear about your frustrations. I can see that you've been in discussion with our Complaints team about this. If you would like to discuss the response we've sent to you, please do get back in touch. We have explained that we will only collect payments from you, in line with the T&amp;Cs of your contract, and only when due.Kind regards, Sam Customer Engagement team.</t>
-        </is>
-      </c>
+          <t>Fast and friendly and easy to deal with</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">03 July 2024
-</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -811,12 +799,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/users/6398c71015fd740012483b76</t>
+          <t>/users/5f3af5627f45c24a2967fccf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hope</t>
+          <t>john boron</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -826,19 +814,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Got my card and am ready for the…</t>
+          <t>it was out of the blue offer just when…</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Got my card and am ready for the experience 
+          <t xml:space="preserve">it was out of the blue offer just when it was needed.simple brilliant process,thanx
 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>25 June 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -848,12 +836,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/users/5d106546dd446279bce0250c</t>
+          <t>/users/6459498e83337900123615b0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Jonathan Bennett</t>
+          <t>Colville  Smith</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,19 +851,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fast payment excellent</t>
+          <t xml:space="preserve">Mother </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fast payment excellent 
+          <t xml:space="preserve">Great experience and help
 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -885,12 +873,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/users/645210dd8fec2f0012a39894</t>
+          <t>/users/6123bb9eadcfe00012959d74</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ilford Ofori</t>
+          <t>Toni Hillan</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -900,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Good </t>
+          <t>Helped me a couple of times so grateful…</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">They are good and helpful. All the best. 
+          <t xml:space="preserve">Helped me a couple of times so grateful 🙂
 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>26 June 2024</t>
+          <t>27 June 2024</t>
         </is>
       </c>
     </row>
@@ -922,12 +910,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/users/62e02932d239a200133ab65f</t>
+          <t>/users/6686e2af32345a6c426d2b1c</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MRDAVETEED</t>
+          <t>Mr. Emmanuel Fawole</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -937,19 +925,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Truth</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truth and trust 
+          <t xml:space="preserve">Excellent Transaction
 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>27 June 2024</t>
         </is>
       </c>
     </row>
@@ -959,12 +947,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/users/65b3e63b549e03001205aeda</t>
+          <t>/users/555b7c680000ff0001c01edb</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -974,19 +962,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Straightforward application process</t>
+          <t>Great company</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Straightforward application process. Thanks 
+          <t xml:space="preserve">Great company, really helpful and extremely easy to deal with. The app is also very easy to navigate. Would recommend 118 118 to anyone. 
 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -996,12 +984,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/users/5a78b0040000ff000b0db862</t>
+          <t>/users/5e00b65798483635c676c84c</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>G.A.</t>
+          <t>Craig Yarker</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1011,14 +999,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Easy to apply and a quick answer.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>Very easy to follow and apply very…</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very easy to follow and apply very quick decision can’t fault anything 
+</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1021,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/users/61b5bfa19540160012119840</t>
+          <t>/users/6686d04f836f3ab601da38d2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Decks mania</t>
+          <t>Ms. Lynda Grihault</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1043,14 +1036,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>So easy to apply and so qui k</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>Perfectly simple easy instructions to…</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perfectly simple easy instructions to follow many thanks 
+</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1060,34 +1058,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/users/5e260a4e013d412e0c263681</t>
+          <t>/users/60fbd5cb564b2c0012ac0f21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jenny Deborah-Grant</t>
+          <t>Mr Tarren McGill</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rated 4 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The step-by-step guide was easy to…</t>
+          <t xml:space="preserve">Very good service </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">The step-by-step guide was easy to understand 
+          <t xml:space="preserve">Excellent service and very fast 
 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1097,12 +1095,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/users/62cef6232a0a26001273c435</t>
+          <t>/users/628216a27704ec001275cdc5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Darwin Fitz</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1112,19 +1110,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Straight to the point and done what was…</t>
+          <t>Very easy to use</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Straight to the point and done what was needed
+          <t xml:space="preserve">Very easy to use, fast and all information provided 
 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1134,12 +1132,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/users/6425690f49c8e700122fa99e</t>
+          <t>/users/6686954207264fc97a8e2c81</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Antony Raj</t>
+          <t>RA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1149,19 +1147,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Great and easy super fast online service</t>
+          <t>Everything went smoothly with no…Great job</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great and easy super fast online service 
+          <t xml:space="preserve">Everything went smoothly with no hassle. Great job.
 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1169,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/users/5b1533ff4de5666d34b9d93a</t>
+          <t>/users/5d972b30dfffa885f96648e6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jackie Smith</t>
+          <t>Fazz</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1186,19 +1184,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>It was easy to do over the phone and…</t>
+          <t>Quick and easy no hassle</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">It was easy to do over the phone and the company keeps me updated on everything oh yeah
+          <t xml:space="preserve">Quick and easy no hassle 
 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>20 June 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1208,12 +1206,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/users/668559cb941b689c8213f550</t>
+          <t>/users/58f741430000ff000a8ea686</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mr. Darren Nurden</t>
+          <t>Steven Reeves</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1223,19 +1221,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Very simple loan set up &amp; apr that…</t>
+          <t>It was very easy and thanks 118 118…</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very simple loan set up &amp; apr that suits me &amp; my repayment requirements 
+          <t xml:space="preserve">It was very easy and thanks 118 118 money I can have my car fix now .
 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1243,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/users/5703fb840000ff000a14b4c4</t>
+          <t>/users/6054bf56e51a9600198b2f09</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gina2017</t>
+          <t>TRACEY WATKINS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1260,19 +1258,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Very efficient and money was in my…</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Very efficient and money was in my account so quickly Some times getting a loan is so difficult when you don't have previous credit but this company helped me so much while I was in a pickle 
-</t>
-        </is>
-      </c>
+          <t>Quick and easy application</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25 June 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1282,34 +1275,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/users/64b11fe3c7321b00111b8e22</t>
+          <t>/users/581ea2ed0000ff000a548087</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tony Dyer</t>
+          <t>neil</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rated 4 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>very good service quick payment good…</t>
+          <t>It was so easy and fast to do well…</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">very good service quick payment good customer care 
+          <t xml:space="preserve">It was so easy and fast to do well impressed 
 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1319,34 +1312,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/users/5ecd5d2d247b226aa31630d6</t>
+          <t>/users/66866724836f3a662ed9ee24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Mr. Mohammed Irfan Shareef</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 4 out of 5 stars</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>I can't believe how easy it was</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I can't believe how easy it was, and the pressure of getting my car back on the road..amazing
-</t>
-        </is>
-      </c>
+          <t>The app was good</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1344,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/users/5ef8f042eaec70930c465e82</t>
+          <t>/users/55c2439f0000ff0001d1e9c4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bicharsingh</t>
+          <t>James Roch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1371,19 +1359,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Very easy to access</t>
+          <t>Super easy and fast</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very easy to access 
+          <t xml:space="preserve">The whole process end to end took me less than 10 minutes and was very easy - Good to know I can trust 118 118
 </t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>04 July 2024</t>
         </is>
       </c>
     </row>
@@ -1393,34 +1381,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/users/5efcf4f866a0a89e6ed4e36f</t>
+          <t>/users/62bf16a05eb62f0012184c27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gary Cadwallader</t>
+          <t>Ash</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 1 out of 5 stars</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Everything was smooth and efficient</t>
+          <t>Absolute cowboys</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Everything was smooth and efficient, costermer operative i spoke to was pleasnt, helpfull and very polite. Only niggle was the waiting music was a bit hit and miss and several times i thought i had been cut off.
-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t xml:space="preserve">Absolute cowboys, customer help desk is a joke if you get through, try to rip you off as much as they can . I tried to close my account ( which they make increasingly difficult ) the person on the end of the phone had no idea and was trying to tell me I owed more than I did and when I questioned it they put it down to computer error !!!! Tried to complain to the complaints department and got standard can’t help you apology 
+</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Reply from  118 118 MONEY
+Hello Ash - thanks for leaving a review. I'm sorry to hear that you're not happy. I have sent you a request for more information. If you'd like, I can arrange for a member of the team to contact you to discuss this. Kind regards, Sam Customer Engagement team.</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t xml:space="preserve">03 July 2024
+</t>
         </is>
       </c>
     </row>
@@ -1430,34 +1424,34 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/users/66853451836f3a5f8cd9365b</t>
+          <t>/users/61d5b672ad8c1a0012178977</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Jasper Libby</t>
+          <t>Waldemar</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rated 1 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEVER USE </t>
+          <t>I am satisfied</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolutely awful experience with 118.Paid off my credit card with never missing a payment.I paid off my credit card so the balance on the card was £0.They then charged my subscription fee of £8 which I didnt notice, me being me didn't realise they still charged this fee after you paid the card off. So I hold my hands up to that.Logged onto my online app on the Monday when the payment was due and thought I paid for the £8 there and then for this subscription fee but for some reason it didnt go through, no idea why.118 contacted me on the Tuesday saying payment missed, and this will now effect my credit.But this is a subscription fee? The card isnt in arreas, the balance is £0 why should they classed this as missed payment? Anyway, seeing as I was a day late in paying for the subscription fee even though the card was at £0 they put this down as a missed payment which will now go down on my credit report, which will now effect all my future plans with buying my first home. Tried to call 118 to beg them this was a genuine mistake but they said they couldn't do anything about it, and couldn't change the fact that even though I was just 12 hours "late" in not paying back the subscription fee it was going as a missed payment, and I would need to contact all the credit agencies to dispute this... which we all know is an absolute nightmare. They were no help what so ever and they didn't even take into account how much this will financially ruin me. I've worked so hard to get my credit score up to excellent and due to this genuine mistake they have ruined it all for me. Also tried to close my account and they finally closed it after the third request.An absolute awful company who really will do nothing for you. I was so upset on the phone and the lady was so robotic SO textbook.Didnt take into my personal situation at all, and the whole company are so heartless and just disgusting. 
+          <t xml:space="preserve">I am satisfied 
 </t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1461,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/users/54fef1d30000ff0001b0524d</t>
+          <t>/users/5e206a9b013d41be85238e83</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Stephen Rogers</t>
+          <t>Karen Fripp</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1482,19 +1476,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Quick and easy to apply with an easy to…</t>
+          <t>Very quick process and informative</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quick and easy to apply with an easy to follow application
+          <t xml:space="preserve">Very quick process and informative 
 </t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>25 June 2024</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1498,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/users/64b2882039ef6900116fb0e6</t>
+          <t>/users/62cac100afc6280014645e41</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>customer</t>
+          <t>Antony Reynolds</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1519,12 +1513,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Loan</t>
+          <t>Excellent company to deal with</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fast and easy to apply
+          <t xml:space="preserve">Excellent company to deal with. No red tape. Easy way to get a loan. Thanks 118 118 money👍🏻
 </t>
         </is>
       </c>
@@ -1541,40 +1535,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/users/5b9aef214de5666d34b34f4e</t>
+          <t>/users/5c51b9f284b47aef8510dc00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tom Obemiaso</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rated 1 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stay clear of 118 money </t>
+          <t>Bit of trouble to start with but when…</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stay clear of 118 money , credit cards or loans. The company is so bad ..  the app is unreliable, you are never able to get customer service on the phone and the interest rates ... they are comparable to loan sharks. How this company is still in business is a failing of the financial ombudsman.
-</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Reply from  118 118 MONEY
-Hello Tom, thank you for leaving a review. I'm sorry to hear that you're frustrated with the app and that you've had trouble getting hold of us on the phone. Please respond to the information request I've sent - I'd like to arrange for a member of the Customer Support team to contact you. Kind regards, Sam Customer Engagement team.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Bit of trouble to start with but when things were understood very helpful and quick process
+</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">01 July 2024
-</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -1584,12 +1572,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/users/505c871e00006400012227ed</t>
+          <t>/users/6685c16cb46b5daed150387d</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Andrew Leng</t>
+          <t>Mr. William Paterson</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1599,14 +1587,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Quick and Easy Process</t>
+          <t>Great fast service</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t>26 June 2024</t>
         </is>
       </c>
     </row>
@@ -1616,34 +1604,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/users/5fc819b50a6ce00019c038e4</t>
+          <t>/users/64ef4382cb6b190012a45b84</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dede Yomor</t>
+          <t>Mathew Thomas</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 1 out of 5 stars</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prompt service </t>
+          <t>Awful company</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Application was fast
-</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t xml:space="preserve">Awful company, believe me once they have your bank details they will help themselves to whatever they want whenever they want.Customer service are useless and the complaints team are less than useless and will just send standard responses very close to the contracted deadlines.Do yourselves a favour and visit a loan shark instead of this cowboy outfit as the service you receive will be more compassionate.Escalating complaint to FOS
+</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Reply from  118 118 MONEY
+Hello Matthew - I'm sorry to hear about your frustrations. I can see that you've been in discussion with our Complaints team about this. If you would like to discuss the response we've sent to you, please do get back in touch. We have explained that we will only collect payments from you, in line with the T&amp;Cs of your contract, and only when due.Kind regards, Sam Customer Engagement team.</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>03 July 2024</t>
+          <t xml:space="preserve">03 July 2024
+</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1647,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/users/635f6f501f22fa00126b7b54</t>
+          <t>/users/6398c71015fd740012483b76</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dale Maddocks</t>
+          <t>Hope</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1668,19 +1662,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fast &amp; efficient Result easy…</t>
+          <t>Got my card and am ready for the…</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fast &amp; efficient Result easy application process, would recommend 
+          <t xml:space="preserve">Got my card and am ready for the experience 
 </t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>25 June 2024</t>
         </is>
       </c>
     </row>
@@ -1690,12 +1684,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/users/668476c6cd5b3b69b747c9ae</t>
+          <t>/users/5d106546dd446279bce0250c</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mr. Mitesh Saraiya</t>
+          <t>Jonathan Bennett</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1705,19 +1699,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very good </t>
+          <t>Fast payment excellent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very good response and good service..
+          <t xml:space="preserve">Fast payment excellent 
 </t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -1727,12 +1721,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/users/5d530de3750a4758786df148</t>
+          <t>/users/645210dd8fec2f0012a39894</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamie </t>
+          <t>Ilford Ofori</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1742,14 +1736,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Quick and easy good rates</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t xml:space="preserve">Good </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They are good and helpful. All the best. 
+</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>26 June 2024</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1758,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/users/542da4fb00006400018de779</t>
+          <t>/users/62e02932d239a200133ab65f</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>MRDAVETEED</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1774,19 +1773,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Easy to use website</t>
+          <t>Truth</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easy to use website, easy process, quick and efficient
+          <t xml:space="preserve">Truth and trust 
 </t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1795,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/users/649fe8919736270012595e71</t>
+          <t>/users/65b3e63b549e03001205aeda</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>customer</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1811,19 +1810,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Was easy to apply and very quick at…</t>
+          <t>Straightforward application process</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Was easy to apply and very quick at paying my loan into my account.
+          <t xml:space="preserve">Straightforward application process. Thanks 
 </t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -1833,12 +1832,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/users/5e8b1ca16251452962ebbf1c</t>
+          <t>/users/5a78b0040000ff000b0db862</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">customer Emma brown </t>
+          <t>G.A.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1848,19 +1847,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>What a great company quick response…</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What a great company quick response would definitely recommend 
-</t>
-        </is>
-      </c>
+          <t>Easy to apply and a quick answer.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -1870,12 +1864,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/users/61b6513091317e0012e80693</t>
+          <t>/users/61b5bfa19540160012119840</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cynthia Henry</t>
+          <t>Decks mania</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1885,19 +1879,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Easy information provided easy application and funds sent very quickly
-</t>
-        </is>
-      </c>
+          <t>So easy to apply and so qui k</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -1907,34 +1896,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/users/55d77fc30000ff0001d5e85d</t>
+          <t>/users/5e260a4e013d412e0c263681</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Senkyire </t>
+          <t>Jenny Deborah-Grant</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 4 out of 5 stars</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Well I found dealing with the…</t>
+          <t>The step-by-step guide was easy to…</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well I found dealing with the application very straightforward 
+          <t xml:space="preserve">The step-by-step guide was easy to understand 
 </t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -1944,12 +1933,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/users/5fd39c031292f8001bd120a6</t>
+          <t>/users/62cef6232a0a26001273c435</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Elaine Stephens</t>
+          <t>Darwin Fitz</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1959,19 +1948,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Easy and user friendly</t>
+          <t>Straight to the point and done what was…</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easy and user friendly 
+          <t xml:space="preserve">Straight to the point and done what was needed
 </t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1970,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/users/5c532b1a542d984b4de4b4d3</t>
+          <t>/users/6425690f49c8e700122fa99e</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mr Simon Matthews</t>
+          <t>Antony Raj</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1996,14 +1985,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Excellent Service</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>Great and easy super fast online service</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great and easy super fast online service 
+</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2013,12 +2007,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/users/66843815c0713860a3f71d84</t>
+          <t>/users/5b1533ff4de5666d34b9d93a</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mrs. Tery ksgs</t>
+          <t>Jackie Smith</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2028,19 +2022,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easy to follow </t>
+          <t>It was easy to do over the phone and…</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easy to follow
+          <t xml:space="preserve">It was easy to do over the phone and the company keeps me updated on everything oh yeah
 </t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>20 June 2024</t>
         </is>
       </c>
     </row>
@@ -2050,12 +2044,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/users/62067912dc820e00121ecedf</t>
+          <t>/users/668559cb941b689c8213f550</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>customer</t>
+          <t>Mr. Darren Nurden</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2065,14 +2059,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>It was very quick and easy thank you</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>Very simple loan set up &amp; apr that…</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very simple loan set up &amp; apr that suits me &amp; my repayment requirements 
+</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2082,12 +2081,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/users/647477eb949f04001398552d</t>
+          <t>/users/5703fb840000ff000a14b4c4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MRSJENNIEETTERIDGE</t>
+          <t>Gina2017</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2097,14 +2096,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Easy to apply</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>Very efficient and money was in my…</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very efficient and money was in my account so quickly Some times getting a loan is so difficult when you don't have previous credit but this company helped me so much while I was in a pickle 
+</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>25 June 2024</t>
         </is>
       </c>
     </row>
@@ -2114,34 +2118,34 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/users/5bb53c5d4de5666d34f65b6c</t>
+          <t>/users/64b11fe3c7321b00111b8e22</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>customer</t>
+          <t>Tony Dyer</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 4 out of 5 stars</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Very easy and application didn’t take…</t>
+          <t>very good service quick payment good…</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very easy and application didn’t take to long to do
+          <t xml:space="preserve">very good service quick payment good customer care 
 </t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2155,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/users/5a9d47c84de5666d34e69afd</t>
+          <t>/users/5ecd5d2d247b226aa31630d6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rhys Dowdeswell</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2166,19 +2170,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Very fast and easy process</t>
+          <t>I can't believe how easy it was</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very fast and easy process 
+          <t xml:space="preserve">I can't believe how easy it was, and the pressure of getting my car back on the road..amazing
 </t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2188,12 +2192,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/users/621bb934981dc700123524e8</t>
+          <t>/users/5ef8f042eaec70930c465e82</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Christopher Geoffrey Barnes</t>
+          <t>Bicharsingh</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2203,19 +2207,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Easy to apply for</t>
+          <t>Very easy to access</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easy to apply for, no awkward questions 
+          <t xml:space="preserve">Very easy to access 
 </t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2225,12 +2229,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/users/6684170e05430d8ca0791951</t>
+          <t>/users/5efcf4f866a0a89e6ed4e36f</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mrs. Sanju Gurung</t>
+          <t>Gary Cadwallader</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2240,14 +2244,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Really Quick and Convenient❤️❤️❤️</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>Everything was smooth and efficient</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Everything was smooth and efficient, costermer operative i spoke to was pleasnt, helpfull and very polite. Only niggle was the waiting music was a bit hit and miss and several times i thought i had been cut off.
+</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2257,34 +2266,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/users/5e441d0512b06c0a35f1340e</t>
+          <t>/users/66853451836f3a5f8cd9365b</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rob</t>
+          <t>Jasper Libby</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 1 out of 5 stars</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>118 118 was very good service for me…</t>
+          <t xml:space="preserve">NEVER USE </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">118 118 was very good service for me easy and simple.
-</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t xml:space="preserve">Absolutely awful experience with 118.Paid off my credit card with never missing a payment.I paid off my credit card so the balance on the card was £0.They then charged my subscription fee of £8 which I didnt notice, me being me didn't realise they still charged this fee after you paid the card off. So I hold my hands up to that.Logged onto my online app on the Monday when the payment was due and thought I paid for the £8 there and then for this subscription fee but for some reason it didnt go through, no idea why.118 contacted me on the Tuesday saying payment missed, and this will now effect my credit.But this is a subscription fee? The card isnt in arreas, the balance is £0 why should they classed this as missed payment? Anyway, seeing as I was a day late in paying for the subscription fee even though the card was at £0 they put this down as a missed payment which will now go down on my credit report, which will now effect all my future plans with buying my first home. Tried to call 118 to beg them this was a genuine mistake but they said they couldn't do anything about it, and couldn't change the fact that even though I was just 12 hours "late" in not paying back the subscription fee it was going as a missed payment, and I would need to contact all the credit agencies to dispute this... which we all know is an absolute nightmare. They were no help what so ever and they didn't even take into account how much this will financially ruin me. I've worked so hard to get my credit score up to excellent and due to this genuine mistake they have ruined it all for me. Also tried to close my account and they finally closed it after the third request.An absolute awful company who really will do nothing for you. I was so upset on the phone and the lady was so robotic SO textbook.Didnt take into my personal situation at all, and the whole company are so heartless and just disgusting. 
+</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Reply from  118 118 MONEY
+Hi Jasper, thanks for the review.We’re sorry to hear that you’ve been unhappy with our service.A subscription fee forms part of your payment/balance. As the card is a subscription-based card, this means you’d be charged the subscription fee, regardless of the balance being £0, or at its max. This would be confirmed in your documentation, which you confirm that you’ve read and understood by signing said documentation.As the subscription fee forms part of the payment/balance, if this isn’t paid, then it’s classed as a late/missed payment. We have an obligation to provide a true and accurate representation of how an account is maintained with us, to the Credit Reference Agencies (CRA’s). We’re sorry that you feel we’re unwilling to help you. Please keep in mind that we’re not able to falsely report to your credit file.If you’d like to express your concerns further, you can reach out to our Complaints team through our online feedback/complaints form found on our website. LM</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t xml:space="preserve">02 July 2024
+</t>
         </is>
       </c>
     </row>
@@ -2294,34 +2309,34 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/users/5c5ec0c0cd94f93c8a052282</t>
+          <t>/users/54fef1d30000ff0001b0524d</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>customer</t>
+          <t>Stephen Rogers</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rated 4 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Quick &amp; easy</t>
+          <t>Quick and easy to apply with an easy to…</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quick &amp; easy 
+          <t xml:space="preserve">Quick and easy to apply with an easy to follow application
 </t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2331,34 +2346,34 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/users/5c49c762544f661c9d209cec</t>
+          <t>/users/64b2882039ef6900116fb0e6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rated 4 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Easy to understand</t>
+          <t>Loan</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easy to understand 
+          <t xml:space="preserve">Fast and easy to apply
 </t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2368,29 +2383,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/users/6683fa46198df2be789584d8</t>
+          <t>/users/5b9aef214de5666d34b34f4e</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mr. Richie Cunningham</t>
+          <t>Tom Obemiaso</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 1 out of 5 stars</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Very helpful</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+          <t xml:space="preserve">Stay clear of 118 money </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stay clear of 118 money , credit cards or loans. The company is so bad ..  the app is unreliable, you are never able to get customer service on the phone and the interest rates ... they are comparable to loan sharks. How this company is still in business is a failing of the financial ombudsman.
+</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Reply from  118 118 MONEY
+Hello Tom, thank you for leaving a review. I'm sorry to hear that you're frustrated with the app and that you've had trouble getting hold of us on the phone. Please respond to the information request I've sent - I'd like to arrange for a member of the Customer Support team to contact you. Kind regards, Sam Customer Engagement team.</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t xml:space="preserve">01 July 2024
+</t>
         </is>
       </c>
     </row>
@@ -2400,12 +2426,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/users/6683f583c07138e9c6f6e7f2</t>
+          <t>/users/505c871e00006400012227ed</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mr. Simon Khalsa</t>
+          <t>Andrew Leng</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2415,19 +2441,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Thank you</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thank youFor quick and easy response 
-</t>
-        </is>
-      </c>
+          <t>Quick and Easy Process</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2458,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/users/6352a7fc8c0c1b0013dda273</t>
+          <t>/users/5fc819b50a6ce00019c038e4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Michael  Neil</t>
+          <t>Dede Yomor</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2452,19 +2473,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Great Service</t>
+          <t xml:space="preserve">Prompt service </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great Service 
+          <t xml:space="preserve">Application was fast
 </t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>02 July 2024</t>
+          <t>03 July 2024</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2495,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/users/5e551ec3812cb1745baa8fa7</t>
+          <t>/users/635f6f501f22fa00126b7b54</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nick Johns</t>
+          <t>Dale Maddocks</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2489,12 +2510,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Such a great service and very easy to…</t>
+          <t>Fast &amp; efficient Result easy…</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Such a great service and very easy to apply.
+          <t xml:space="preserve">Fast &amp; efficient Result easy application process, would recommend 
 </t>
         </is>
       </c>
@@ -2511,12 +2532,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/users/6050a04dc06806001b6583d9</t>
+          <t>/users/668476c6cd5b3b69b747c9ae</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sheila kelly</t>
+          <t>Mr. Mitesh Saraiya</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2526,12 +2547,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Great customer  service  excellent …</t>
+          <t xml:space="preserve">Very good </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great customer  service  excellent  rates on loans &amp; also have my credit  card with them.Highly  recommend  the team &amp; always helpful. Sheila kelly oxford 
+          <t xml:space="preserve">Very good response and good service..
 </t>
         </is>
       </c>
@@ -2548,40 +2569,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/users/5ef3474ad9f9fa305970a609</t>
+          <t>/users/5d530de3750a4758786df148</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>David Holmes</t>
+          <t xml:space="preserve">Jamie </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rated 1 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Really poor</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Really poor, you miss a payment and the next day there are phone call after phone call chasing you. It’s so aggressive too early on from missing it and what I don’t like is that the number is disguised as a mobile phone number making it look like a friend not a business 
-</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Reply from  118 118 MONEY
-Hello David, Thank you for leaving a review. When a customer misses a payment, it can have a detrimental impact on their credit score. So, when contacting customers who have fallen behind with payments, it's our intention to help. Note that the number we call from ends 118 and we send a follow up SMS to confirm it was us calling. Thank you for replying to my information request. I've asked a member of the Customer Support team to contact you.Kind regards, Sam Customer Engagement team.</t>
-        </is>
-      </c>
+          <t>Quick and easy good rates</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">01 July 2024
-</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -2591,12 +2601,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/users/5f173337a36e877dd0cd385c</t>
+          <t>/users/542da4fb00006400018de779</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bruce Anderson</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2606,10 +2616,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Very easy to apply</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>Easy to use website</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easy to use website, easy process, quick and efficient
+</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
@@ -2623,12 +2638,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/users/6683dcb4b19cefbb8d1e6cf2</t>
+          <t>/users/649fe8919736270012595e71</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mrs. Chinyere Ojiakor</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2638,12 +2653,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Very good and quick to respond</t>
+          <t>Was easy to apply and very quick at…</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very good and quick to respond 
+          <t xml:space="preserve">Was easy to apply and very quick at paying my loan into my account.
 </t>
         </is>
       </c>
@@ -2660,12 +2675,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/users/6683d682cccc1c729f147daf</t>
+          <t>/users/5e8b1ca16251452962ebbf1c</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mr. Mark Ball</t>
+          <t xml:space="preserve">customer Emma brown </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2675,12 +2690,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Very easy process..</t>
+          <t>What a great company quick response…</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Set up within 10 mins.. easy to deal with.
+          <t xml:space="preserve">What a great company quick response would definitely recommend 
 </t>
         </is>
       </c>
@@ -2697,12 +2712,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/users/5fb7a03e62d6ea00190d695c</t>
+          <t>/users/61b6513091317e0012e80693</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Jamie Loftus</t>
+          <t>Cynthia Henry</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2712,12 +2727,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Was easy to log in and out and pretty simple to read terms and conditions </t>
+          <t>Great</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Was easy to log in and put 
+          <t xml:space="preserve">Easy information provided easy application and funds sent very quickly
 </t>
         </is>
       </c>
@@ -2734,12 +2749,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/users/5f5f9f12d3fb8070c4e688ff</t>
+          <t>/users/55d77fc30000ff0001d5e85d</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mrs Andrea Peart</t>
+          <t xml:space="preserve">Peter Senkyire </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2749,12 +2764,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Easy to manageEasy to fill out forms and questions…</t>
+          <t>Well I found dealing with the…</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easy to fill out forms and questions quick response 
+          <t xml:space="preserve">Well I found dealing with the application very straightforward 
 </t>
         </is>
       </c>
@@ -2771,12 +2786,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/users/64ca7e30e80a820012e8651a</t>
+          <t>/users/5fd39c031292f8001bd120a6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Stephen Thompson</t>
+          <t>Elaine Stephens</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2786,19 +2801,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Save and secure</t>
+          <t>Easy and user friendly</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Everything was easy to do when applying.I was given an answer quickly and the loan was transferred within the hour.Use with confidence!
+          <t xml:space="preserve">Easy and user friendly 
 </t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -2808,30 +2823,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/users/6683a791941b68327512ced3</t>
+          <t>/users/5c532b1a542d984b4de4b4d3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mr. Simon Reeves</t>
+          <t>Mr Simon Matthews</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rated 4 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Simple easy to use application but…</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simple easy to use application but maybe work on the errors during applications as had to try 4 times with application 
-</t>
-        </is>
-      </c>
+          <t>Excellent Service</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
@@ -2845,40 +2855,34 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/users/6683a648078852695571de22</t>
+          <t>/users/66843815c0713860a3f71d84</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mr. Kevin Mattammal Jacob</t>
+          <t>Mrs. Tery ksgs</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rated 1 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>i didn't get the credit card site…</t>
+          <t xml:space="preserve">Easy to follow </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">i didn't get the credit card site problem
-</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Reply from  118 118 MONEY
-Hi Kevin - thank you for leaving a review and letting us know. A member of the Customer Support team will contact you this morning to get this resolved for you.Kind regards Sam Customer Engagement team.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Easy to follow
+</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">02 July 2024
-</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2892,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/users/66834eda05430d2d1478960b</t>
+          <t>/users/62067912dc820e00121ecedf</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Mr. Igor Celestino</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2903,19 +2907,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Great service</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Great service, it only took 5 minutes to apply via Experian and my loan was confirmed in no time. Once I had read the docs and and signed the agreement electronically, the money arrived in my account in a few minutes and this was about 22:00. Completely stress free!  
-</t>
-        </is>
-      </c>
+          <t>It was very quick and easy thank you</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -2925,12 +2924,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/users/65e22e6eda4e390013ba3417</t>
+          <t>/users/647477eb949f04001398552d</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>STEVEN MORAN</t>
+          <t>MRSJENNIEETTERIDGE</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2940,19 +2939,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Easy application</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Easy application. Straight forward &amp; quick decision 
-</t>
-        </is>
-      </c>
+          <t>Easy to apply</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -2962,12 +2956,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/users/592eb79e0000ff000a9e48e4</t>
+          <t>/users/5bb53c5d4de5666d34f65b6c</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Channa</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2977,14 +2971,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Very easy and quick decision.</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>Very easy and application didn’t take…</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very easy and application didn’t take to long to do
+</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -2994,12 +2993,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/users/6683177173f36a61a548403f</t>
+          <t>/users/5a9d47c84de5666d34e69afd</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Vic</t>
+          <t>Rhys Dowdeswell</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3009,19 +3008,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Quick</t>
+          <t>Very fast and easy process</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quick, easy, straight forward.
+          <t xml:space="preserve">Very fast and easy process 
 </t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3031,12 +3030,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/users/5d444a9939d16bd80a986600</t>
+          <t>/users/621bb934981dc700123524e8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mrs Till</t>
+          <t>Christopher Geoffrey Barnes</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3046,19 +3045,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Was so very quick and easy and got food…</t>
+          <t>Easy to apply for</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Was so very quick and easy and got food nds in less than han an hour
+          <t xml:space="preserve">Easy to apply for, no awkward questions 
 </t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3068,12 +3067,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/users/6679cb4c75540f27e49747bf</t>
+          <t>/users/6684170e05430d8ca0791951</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Michael Bailey</t>
+          <t>Mrs. Sanju Gurung</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3083,19 +3082,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Out of this world customer service</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I contacted 118 118 today because I was struggling a bit financially and needed some help. I spoke to May and she was incredibly helpful, took the time to answer all my questions and made sure that the agreement we setup worked for both parties given the circumstances.It took a little while but she made sure to put the time and effort in to make sure that I was looked after properly which I really appreciated.Prior to this I had contacted around a year ago speaking to a number of agents who were very empathetic and gave great service and took my personal feelings into account.Just wanted to say thank you to the 118 team for all the help they have provided and I would urge anyone else who is struggling to pay to give them a call! They are there to help!Please forward my feedback on for May and the 118 team. 5+ star customer service all round.
-</t>
-        </is>
-      </c>
+          <t>Really Quick and Convenient❤️❤️❤️</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3105,12 +3099,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/users/601fc57de0ea78001972b0f0</t>
+          <t>/users/5e441d0512b06c0a35f1340e</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lewis Brown</t>
+          <t>Rob</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3120,14 +3114,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Easy to use great experiance</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>118 118 was very good service for me…</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">118 118 was very good service for me easy and simple.
+</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3136,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/users/6543b6d76ffad400116f5f54</t>
+          <t>/users/5c5ec0c0cd94f93c8a052282</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Babatunji</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3152,14 +3151,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Quick response and service.</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>Quick &amp; easy</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick &amp; easy 
+</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3169,34 +3173,34 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/users/510282bf00006400012eae86</t>
+          <t>/users/5c49c762544f661c9d209cec</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>James Kelman</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 4 out of 5 stars</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Fantastic and easy from start to finish</t>
+          <t>Easy to understand</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fantastic and easy from start to finish  
+          <t xml:space="preserve">Easy to understand 
 </t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3206,12 +3210,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/users/5a3c27080000ff000af4c9f2</t>
+          <t>/users/6683fa46198df2be789584d8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Michael Nunoo</t>
+          <t>Mr. Richie Cunningham</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3221,14 +3225,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Quick and efficient</t>
+          <t>Very helpful</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>24 June 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3238,12 +3242,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/users/6682e69105430d5524785b4e</t>
+          <t>/users/6683f583c07138e9c6f6e7f2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Mr. Abraham Forrest</t>
+          <t>Mr. Simon Khalsa</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3253,19 +3257,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">No problem </t>
+          <t>Thank you</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">No problem to get
+          <t xml:space="preserve">Thank youFor quick and easy response 
 </t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3279,34 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>/users/638085b401c0760011529f27</t>
+          <t>/users/6352a7fc8c0c1b0013dda273</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>David Sneddon</t>
+          <t>Michael  Neil</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Rated 4 out of 5 stars</t>
+          <t>Rated 5 out of 5 stars</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>All good no hassle</t>
+          <t>Great Service</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">All good no hassle 
+          <t xml:space="preserve">Great Service 
 </t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3312,12 +3316,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/users/642716c187c07b00133fb9fd</t>
+          <t>/users/5e551ec3812cb1745baa8fa7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Robyn Paulino</t>
+          <t>Nick Johns</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3327,19 +3331,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great </t>
+          <t>Such a great service and very easy to…</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">I will be using this to help me pay towards me car 
+          <t xml:space="preserve">Such a great service and very easy to apply.
 </t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3349,12 +3353,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/users/66199a48d0cd7a0012ae39f7</t>
+          <t>/users/6050a04dc06806001b6583d9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Neil Jarvis</t>
+          <t>sheila kelly</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3364,19 +3368,19 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Exellent from the start</t>
+          <t>Great customer  service  excellent …</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exellent from the start 
+          <t xml:space="preserve">Great customer  service  excellent  rates on loans &amp; also have my credit  card with them.Highly  recommend  the team &amp; always helpful. Sheila kelly oxford 
 </t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3386,34 +3390,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/users/5c5221344cf7788007dbe08c</t>
+          <t>/users/5ef3474ad9f9fa305970a609</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>David Winger-Beeston</t>
+          <t>David Holmes</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 1 out of 5 stars</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Loan</t>
+          <t>Really poor</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very easy to use online application. Fast payout. 
-</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t xml:space="preserve">Really poor, you miss a payment and the next day there are phone call after phone call chasing you. It’s so aggressive too early on from missing it and what I don’t like is that the number is disguised as a mobile phone number making it look like a friend not a business 
+</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Reply from  118 118 MONEY
+Hello David, Thank you for leaving a review. When a customer misses a payment, it can have a detrimental impact on their credit score. So, when contacting customers who have fallen behind with payments, it's our intention to help. Note that the number we call from ends 118 and we send a follow up SMS to confirm it was us calling. Thank you for replying to my information request. I've asked a member of the Customer Support team to contact you.Kind regards, Sam Customer Engagement team.</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t xml:space="preserve">01 July 2024
+</t>
         </is>
       </c>
     </row>
@@ -3423,12 +3433,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/users/5c08b6e30717eef874d9e3ae</t>
+          <t>/users/5f173337a36e877dd0cd385c</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>jayne Heenan</t>
+          <t>Bruce Anderson</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3438,19 +3448,14 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>You app was nice and clear and question…</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You app was nice and clear and question were easy to answer 
-</t>
-        </is>
-      </c>
+          <t>Very easy to apply</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3460,12 +3465,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/users/6476e42027d6ea0013d77f11</t>
+          <t>/users/6683dcb4b19cefbb8d1e6cf2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Samantha morrell Morrell</t>
+          <t>Mrs. Chinyere Ojiakor</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3475,19 +3480,19 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quick and easy to use </t>
+          <t>Very good and quick to respond</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quick and easy 
+          <t xml:space="preserve">Very good and quick to respond 
 </t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3502,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/users/59e091f70000ff000ad48697</t>
+          <t>/users/6683d682cccc1c729f147daf</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Luce Stoichitoiu</t>
+          <t>Mr. Mark Ball</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3512,14 +3517,19 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Quick and easy</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+          <t>Very easy process..</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Set up within 10 mins.. easy to deal with.
+</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3539,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>/users/586fcfea0000ff000a6968f4</t>
+          <t>/users/5fb7a03e62d6ea00190d695c</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>pete</t>
+          <t>Jamie Loftus</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3544,14 +3554,19 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Very easy to apply</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+          <t xml:space="preserve">Was easy to log in and out and pretty simple to read terms and conditions </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Was easy to log in and put 
+</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3576,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/users/6682aeec941b6805741242d1</t>
+          <t>/users/5f5f9f12d3fb8070c4e688ff</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mr. William Wellings</t>
+          <t>Mrs Andrea Peart</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3576,14 +3591,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>spot on super fast</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>Easy to manageEasy to fill out forms and questions…</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easy to fill out forms and questions quick response 
+</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3593,12 +3613,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>/users/59f893d70000ff000adc54a1</t>
+          <t>/users/64ca7e30e80a820012e8651a</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Aija Ustinova</t>
+          <t>Stephen Thompson</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3608,12 +3628,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">unbelievable  </t>
+          <t>Save and secure</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">unbelievable  ,so quick and easy ,you just save my day
+          <t xml:space="preserve">Everything was easy to do when applying.I was given an answer quickly and the loan was transferred within the hour.Use with confidence!
 </t>
         </is>
       </c>
@@ -3630,29 +3650,34 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>/users/5dd01a17cbe2ac12d8d6c037</t>
+          <t>/users/6683a791941b68327512ced3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PETER WARDLE</t>
+          <t>Mr. Simon Reeves</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 4 out of 5 stars</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Very easy so simple perfect</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+          <t>Simple easy to use application but…</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simple easy to use application but maybe work on the errors during applications as had to try 4 times with application 
+</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>02 July 2024</t>
         </is>
       </c>
     </row>
@@ -3662,34 +3687,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>/users/61fe6313a702070012434ae4</t>
+          <t>/users/6683a648078852695571de22</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Geanina</t>
+          <t>Mr. Kevin Mattammal Jacob</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 1 out of 5 stars</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Good service</t>
+          <t>i didn't get the credit card site…</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Good service 
-</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t xml:space="preserve">i didn't get the credit card site problem
+</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Reply from  118 118 MONEY
+Hi Kevin - thank you for leaving a review and letting us know. A member of the Customer Support team will contact you this morning to get this resolved for you.Kind regards Sam Customer Engagement team.</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t xml:space="preserve">02 July 2024
+</t>
         </is>
       </c>
     </row>
@@ -3699,12 +3730,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>/users/6682a4beec26feb107f25622</t>
+          <t>/users/66834eda05430d2d1478960b</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Mrs. Vijaya Panabaka</t>
+          <t>Mr. Igor Celestino</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3714,10 +3745,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Process was quick</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>Great service</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great service, it only took 5 minutes to apply via Experian and my loan was confirmed in no time. Once I had read the docs and and signed the agreement electronically, the money arrived in my account in a few minutes and this was about 22:00. Completely stress free!  
+</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
@@ -3731,12 +3767,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>/users/65fd4488256eb50012500660</t>
+          <t>/users/65e22e6eda4e390013ba3417</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Peter Stephens</t>
+          <t>STEVEN MORAN</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3746,19 +3782,19 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Simple</t>
+          <t>Easy application</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simple, easy to use
+          <t xml:space="preserve">Easy application. Straight forward &amp; quick decision 
 </t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>29 June 2024</t>
+          <t>01 July 2024</t>
         </is>
       </c>
     </row>
@@ -3768,12 +3804,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>/users/5fba755f05e509001aa6cd07</t>
+          <t>/users/592eb79e0000ff000a9e48e4</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Laura Hepplestone</t>
+          <t>Channa</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3783,15 +3819,10 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Quick effect</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quick effective 
-</t>
-        </is>
-      </c>
+          <t>Very easy and quick decision.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
@@ -3805,12 +3836,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>/users/66829cde73f36a4c7147e3f4</t>
+          <t>/users/6683177173f36a61a548403f</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mr. Maciej Pys</t>
+          <t>Vic</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3820,12 +3851,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Fast and reliable,5 star</t>
+          <t>Quick</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fast and reliable,5 star
+          <t xml:space="preserve">Quick, easy, straight forward.
 </t>
         </is>
       </c>
@@ -3842,12 +3873,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>/users/5c89e8a8088c2f19f52daa3a</t>
+          <t>/users/5d444a9939d16bd80a986600</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Andrew Johnston</t>
+          <t>Mrs Till</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3857,12 +3888,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>So easy, fast and efficient to arrange a loan...</t>
+          <t>Was so very quick and easy and got food…</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">The whole process was so simple to use and everything was completed in a matter of minutes.
+          <t xml:space="preserve">Was so very quick and easy and got food nds in less than han an hour
 </t>
         </is>
       </c>
@@ -3879,12 +3910,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>/users/60298cd76142c8001a0500bf</t>
+          <t>/users/6679cb4c75540f27e49747bf</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>visan florin</t>
+          <t>Michael Bailey</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3894,19 +3925,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>good service</t>
+          <t>Out of this world customer service</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">good service 
+          <t xml:space="preserve">I contacted 118 118 today because I was struggling a bit financially and needed some help. I spoke to May and she was incredibly helpful, took the time to answer all my questions and made sure that the agreement we setup worked for both parties given the circumstances.It took a little while but she made sure to put the time and effort in to make sure that I was looked after properly which I really appreciated.Prior to this I had contacted around a year ago speaking to a number of agents who were very empathetic and gave great service and took my personal feelings into account.Just wanted to say thank you to the 118 team for all the help they have provided and I would urge anyone else who is struggling to pay to give them a call! They are there to help!Please forward my feedback on for May and the 118 team. 5+ star customer service all round.
 </t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>27 June 2024</t>
+          <t>01 July 2024</t>
         </is>
       </c>
     </row>
@@ -3916,12 +3947,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>/users/5f3e9e7f5d4afc643d9b74b7</t>
+          <t>/users/601fc57de0ea78001972b0f0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Maria Boundy</t>
+          <t>Lewis Brown</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3931,14 +3962,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>very efficient service</t>
+          <t>Easy to use great experiance</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>23 June 2024</t>
+          <t>01 July 2024</t>
         </is>
       </c>
     </row>
@@ -3948,30 +3979,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>/users/66828cb4078852b21d7131a1</t>
+          <t>/users/6543b6d76ffad400116f5f54</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Miss. Tracey Hastie</t>
+          <t>Babatunji</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rated 5 out of 5 stars</t>
+          <t>Rated 4 out of 5 stars</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Very easy and straight forward and also…</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Very easy and straight forward and also affordable monthly payments
-</t>
-        </is>
-      </c>
+          <t>Quick response and service.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
@@ -3985,12 +4011,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>/users/668289a7941b68e193121e4e</t>
+          <t>/users/510282bf00006400012eae86</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mr. Trevor Tilling</t>
+          <t>James Kelman</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4000,12 +4026,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nice and simple</t>
+          <t>Fantastic and easy from start to finish</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nice and simple 
+          <t xml:space="preserve">Fantastic and easy from start to finish  
 </t>
         </is>
       </c>
@@ -4022,12 +4048,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>/users/6027d13f75c6c30019e491ce</t>
+          <t>/users/5a3c27080000ff000af4c9f2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Timothy Mccafferty</t>
+          <t>Michael Nunoo</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4037,19 +4063,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minimum of fuss </t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Minimum of fuss , easy to use site . Money transferred very quickly . Fantastic 👏👏
-</t>
-        </is>
-      </c>
+          <t>Quick and efficient</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>01 July 2024</t>
+          <t>24 June 2024</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4080,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>/users/641b4274e9df2b0012a4c45c</t>
+          <t>/users/6682e69105430d5524785b4e</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Jonah Mabale</t>
+          <t>Mr. Abraham Forrest</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4074,12 +4095,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quick service and straightforward </t>
+          <t xml:space="preserve">No problem </t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quick and straightforward 
+          <t xml:space="preserve">No problem to get
 </t>
         </is>
       </c>
@@ -4087,6 +4108,3611 @@
       <c r="H101" t="inlineStr">
         <is>
           <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>/users/638085b401c0760011529f27</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>David Sneddon</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Rated 4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>All good no hassle</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">All good no hassle 
+</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>/users/642716c187c07b00133fb9fd</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Robyn Paulino</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I will be using this to help me pay towards me car 
+</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>/users/66199a48d0cd7a0012ae39f7</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Neil Jarvis</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Exellent from the start</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exellent from the start 
+</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>/users/5c5221344cf7788007dbe08c</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>David Winger-Beeston</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very easy to use online application. Fast payout. 
+</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>/users/5c08b6e30717eef874d9e3ae</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>jayne Heenan</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>You app was nice and clear and question…</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You app was nice and clear and question were easy to answer 
+</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>/users/6476e42027d6ea0013d77f11</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Samantha morrell Morrell</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick and easy to use </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick and easy 
+</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>/users/59e091f70000ff000ad48697</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Luce Stoichitoiu</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Quick and easy</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>/users/586fcfea0000ff000a6968f4</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>pete</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Very easy to apply</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>/users/6682aeec941b6805741242d1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Mr. William Wellings</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>spot on super fast</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>/users/59f893d70000ff000adc54a1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Aija Ustinova</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">unbelievable  </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">unbelievable  ,so quick and easy ,you just save my day
+</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>/users/5dd01a17cbe2ac12d8d6c037</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PETER WARDLE</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Very easy so simple perfect</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>/users/61fe6313a702070012434ae4</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Geanina</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Good service</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good service 
+</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>/users/6682a4beec26feb107f25622</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Mrs. Vijaya Panabaka</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Process was quick</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>/users/65fd4488256eb50012500660</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Peter Stephens</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simple, easy to use
+</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>/users/5fba755f05e509001aa6cd07</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Laura Hepplestone</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Quick effect</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick effective 
+</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>/users/66829cde73f36a4c7147e3f4</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Mr. Maciej Pys</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Fast and reliable,5 star</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast and reliable,5 star
+</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>/users/5c89e8a8088c2f19f52daa3a</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Andrew Johnston</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>So easy, fast and efficient to arrange a loan...</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The whole process was so simple to use and everything was completed in a matter of minutes.
+</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>/users/60298cd76142c8001a0500bf</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>visan florin</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>good service</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">good service 
+</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>27 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>/users/5f3e9e7f5d4afc643d9b74b7</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Maria Boundy</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>very efficient service</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>23 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>/users/66828cb4078852b21d7131a1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Miss. Tracey Hastie</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Very easy and straight forward and also…</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very easy and straight forward and also affordable monthly payments
+</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>/users/668289a7941b68e193121e4e</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Mr. Trevor Tilling</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Nice and simple</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nice and simple 
+</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>/users/6027d13f75c6c30019e491ce</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Timothy Mccafferty</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minimum of fuss </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minimum of fuss , easy to use site . Money transferred very quickly . Fantastic 👏👏
+</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>/users/641b4274e9df2b0012a4c45c</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Jonah Mabale</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick service and straightforward </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick and straightforward 
+</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>/users/578648c20000ff000a317972</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Armands</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Easy to apply</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easy to apply, very quick...
+</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>/users/5cf7e80bbd9520198f364b70</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sadie  harris</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>118 118 money so easy to apply help all…</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">118 118 money so easy to apply help all the way through. Highly recommended 
+</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>/users/5e80a8ff8a0cd7003770baa4</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyril  Williams </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Fast efficient service</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast efficient service. Highly recommended!
+</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>/users/64f2d6f8859b880012ec2fe6</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Carolanne Cook</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great loan quick and easy </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Got a loan and it was quick and easy 
+</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>/users/5bd34ab9c9c89b9d1b6a4517</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Jamihu</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Very good service and response to…</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very good service and response to customer 
+</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>/users/668271f3d9904eadb4d96a8d</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Mr. Wayne Harris</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Quick an easy thanx you</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>/users/63fcf678ce40d000122ef5cd</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Samar Abid</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Excellent service</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>/users/668252c673f36a5a4e479a1c</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Mr. Andrew Ewart</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>The application process was fast and…</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The application process was fast and easy
+</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>/users/634d6f646d28400014f5d215</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Beverly Smith</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>easy and clear website to use</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>/users/540e904e0000640001895fa1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Taka Chivore</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Efficient as usual</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As always the service is efficient easy to understand and secure through clear score 
+</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>/users/5ff547eb3b9226001b93d28e</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Shellylyne Takawira</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Rated 4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Fast and reliable .Quick checks .Happy</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast and reliable .Quick checks .Happy 
+</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>01 July 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>/users/6681cef3ffc75401a4fb15a0</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Mr. Sangala Hemanth</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very good service </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>17 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>/users/60fa8df3602c5f0011a4547d</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Steven Allen</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Very nice and easy to sort out</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very nice and easy to sort out 
+</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>/users/52f3373100006400016271da</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Ann Middlemiss</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Easy and quick to apply</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>/users/6301c8521bb0fa001270e361</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great service </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great first time experience 
+</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>/users/65e6a05e63589a001176ab00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Kayleigh</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Fast application</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast application, clear figures and not too much to read through just the important parts.
+</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>/users/6681a1c70b81d75286e2444c</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Mrs. Julia Trotman</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Very good and easy to do</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very good and easy to do 
+</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>22 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>/users/5e1070d131bb5a90a3953829</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Luciana Macovei</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Easy applicaton.Perfect.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>/users/56e6c69e0000ff000a0e91f1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Zamir Dreni</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Really good fast Application</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Really good fast Application 
+</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>/users/6681985effc7543f85faf39b</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Mr. Mick Hamblin</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Rated 3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not qualified </t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not epepeet
+</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>/users/55af3f3a0000ff0001ce6109</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Neal Hyett</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Rated 4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Handling was good, and completed.
+</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>21 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>/users/5dfcdcbcb14ccf9df3f299c4</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>TK</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Efficient Service </t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So easy to complete application,  step by step instructions during process and an app for easy use.  
+</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>/users/5afc06b64de5666d343ca79b</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Gary Hale</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Really easy to use and pay.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Really easy to use and pay.  
+</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>/users/66816b0970e2055016a06d51</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Mr. Aidan Rowland</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Quick and easy</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick and easy 
+</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>/users/64725d3d41b63b001433f642</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>John Whitton</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Easy as 118 118.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm not a tech expert. But that was so easy I feel like I am now. 
+</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>/users/590c8f710000ff000a94db2e</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Kevin Campbell</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Very quick and easy</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very quick and easy 
+</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>/users/61f989ed8c89720012806605</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Kirsty</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Very easy application</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very easy application 
+</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>/users/5ae850434de5666d3487d922</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Tracey</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Great customer service fast and…</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great customer service fast and efficient 
+</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>21 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>/users/64c366063e2a0000126b1d6a</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Nerijus</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>First time i taking loan</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First time i taking loan, i was surprized how fast i was approved.Exelent experience 
+</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>/users/5822a6290000ff000a557e34</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Petru Frumusanu</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Easy to fill out form and fast response.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>/users/607041ee6cb5130019965a58</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>customerkenny mccallum</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick and easy.   </t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick and easy.   No hassle. 
+</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>22 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>/users/5b391f714de5666d341fd38f</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Amanda</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Easy application- Pre approved so no…</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easy application- Pre approved so no stress when applying!
+</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>/users/647b637db916ec0013230b73</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Very helpful easy to apply</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very helpful easy to apply 
+</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>/users/569e1f4f0000ff0001fdaf44</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Carla downey</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>So easy to do</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So easy to do, communication was excellent, and I would use it again
+</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>30 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>/users/668105a407885246027039b3</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Mr. Kadiri Bukari</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Rated 4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very fast in delivery </t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>21 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>/users/5ec6881582bffbfb4477027a</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n harris </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>easy peasy very straight forward</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">easy peasy very straight forward 
+</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>/users/6680fbb10b81d779e9e1d41d</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Mr. Abdulahad Baugwala</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perfect </t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very quick response 
+</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>/users/615dae24488dd30012843fc1</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Quick and easy</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick and easy 
+</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>/users/5e39601fe5a4c72ebc8e79fb</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Tatjana Pankova</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Very good</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very good. I'm happy with the result, everything went great. Thanks. 
+</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>/users/60e735ead9ad6d0011bf9120</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Mrs Karen Casson</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Really easy</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Really easy 
+</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>/users/6680945875707785f6f0914e</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Mr. Yazid Bait</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Thanks for your help and the…</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thanks for your help and the application was easy to fill and fast response great one to deal with
+</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>/users/63c59a85d4c822001215962f</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Joanne Firth</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Excellent service and quick response</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excellent service and quick response 
+</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>/users/65d33128224943001206131c</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Allan</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Cant rate 118 118 highly enough</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cant rate 118 118 highly enough.  I didnt have the greatest credit rating, but they were able to help me out.  Great customer service, non pushy, very knowledgeable regarding the products and services.Highly reccomend
+</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>21 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>/users/5f7604d13db1d2d0a9bb22c4</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Debbie Shepherd</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Absolutely 💯 stress free and easy to…</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolutely 💯 stress free and easy to apply. Great quick decision and service
+</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>/users/652fda378ff2df00129f5abf</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Marie Mcginn</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Just made it so easy for me 2 apply</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Just made it so easy for me 2 apply 
+</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>/users/59a679870000ff000ac1de5d</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Alan</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Excellent service.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excellent service. 
+</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>/users/6311e5644b95e60013a23816</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Pat Lane</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Rated 4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Easy quick forms and questions</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easy quick forms and questions 
+</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>/users/5af99fa74de5666d345883aa</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Very easy and stress free process.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Very easy and stress free process. 
+</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>22 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>/users/5b9bd1b04de5666d345188b6</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Alison</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick, simple application and process 
+</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>/users/60fc7612fe30d700116cc2c8</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Mrs. Anita Gyampoh</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Rated 4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>The money came at the right moment</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The money came at the right moment. It was helpful but the amount was small
+</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>21 May 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>/users/648de2650fb7ec001202aad6</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Olukunle  Samuel Olukiran</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Great Customer service</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great Customer service 
+</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>/users/64adee1926e9da0011684eef</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Ryan Yoneda</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Easy to apply</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easy to apply, no complications.
+</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>/users/5c8eb90c4964629539477e1d</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Erianne Ferreira</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Fantastic experience</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fantastic experience. Thanks 
+</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>20 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>/users/64c10b037fd64a00126b12a4</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Mark Wall</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Quick and very easy to apply</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick and very easy to apply 
+</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>/users/5a719f090000ff000b0b2307</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Ashok Kumar Mishra</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Very easy process and Lovely experience</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very easy process and Lovely experience 
+</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>/users/5a5957470000ff000b0058f7</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>naveed amer</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>simple &amp; straightforward</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>27 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>/users/5d51b7aba59a257e5f739de6</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>mrs Kim L Harrison</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Thank you for trusting me to take a…</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank you for trusting me to take a loan out your support is amazing and any questions i had you answerd to a high leavel thank you again .
+</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>/users/5dfab19bd348bf3c607c1e01</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Keiley</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Very fast and easy application.</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>/users/623b142ddae13a00132190a1</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Helpful staff manning the phones no…</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helpful staff manning the phones no automated garbage 
+</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>15 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>/users/665d88f73a31093c1c631a9c</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Mr. David Mason</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Personal loan</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great deal for me very helpful and quick would recommend 
+</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>01 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>/users/5a32ecbc0000ff000af1403d</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Mr James Craig</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Easy app 👌 let's you know exactly what…</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easy app 👌 let's you know exactly what you need 
+</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>21 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>/users/55cb31d60000ff0001d39a4e</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>David Simpson</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very easy to use awesome </t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very easy to use 
+</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>/users/6059b57fffbc7c0012014566</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Sarah Eagle</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Very easy &amp; quick to apply for.</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very easy &amp; quick to apply for. 
+</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>/users/667f54c8ec26fe15a1f05543</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Mr. Constantin Gogoseanu</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>The best</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">a loan granted in 10 minutes...the best
+</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>29 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>/users/627b92a4622cd900127259d2</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Application easy</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Application easy 
+</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>30 April 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>/users/586b87640000ff000a67f960</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Mr Fanthorpe</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Excellent and friendly</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excellent and friendly 
+</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>28 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>/users/5c5eee90d2a869b01dd15830</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Kathryn Joynes</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Clear guidance and easy to use app.</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>28 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>/users/6317cf51a09d850012fdd724</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Jessevil Villegas-Brown</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Prompt response</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quick response on queries and deals with problem to be resolved on a timely manner
+</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>14 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>/users/60c1bfb59217e1001a657628</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Yemi Lawal</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>My experience has been great and the…</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My experience has been great and the online App enables me to make payments more often. 
+</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>28 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>/users/63e06e7b6201120012314387</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>MR  SCOTT ROBERTS</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Efficient </t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very fast, efficient and helpful service.
+</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>20 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>/users/5943e02d0000ff000aa48248</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemma Baptiste </t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Quick and speedy</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>20 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>/users/64120cb250bdef0012871219</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Rajesh Shahulhameed</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>process to complete online application…</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> process to complete online application is helpful 
+</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>28 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>/users/627cab36c4a1c0001144147b</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>customerJERZY JABLONSKI</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>george</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Despite my language barrier, fast, efficient and reliable
+</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>28 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>/users/601bbec44b9838001a62a9b2</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Carlito</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Fast and easy to get the loan I wanted</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast and easy to get the loan I wanted 
+</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>28 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>/users/59288ffb0000ff000a9cc859</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kelly </t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brilliant service </t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brilliant service Definitely recommend them 
+</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>28 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>/users/641097514db77b001215c752</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>JM Jengo</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Rated 4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Fast and stress free customer service.</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>28 June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>/users/5e907d55c78e4f01cf295a54</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Aileen mcateer</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Rated 5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Easy application on line session in…</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easy application on line session in minutes great
+</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>28 June 2024</t>
         </is>
       </c>
     </row>
